--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
     <sheet name="Lukasz" sheetId="2" r:id="rId2"/>
     <sheet name="Youssef" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="44">
   <si>
     <t>Dag:</t>
   </si>
@@ -148,11 +148,17 @@
   <si>
     <t>V-week = vakantie week</t>
   </si>
+  <si>
+    <t>Maandag: Ik ben begonnen met code convention en huisstijl.</t>
+  </si>
+  <si>
+    <t>Dinsdag: Ik ben klaar met code convention en ik ben begonnen met email maken.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,23 +594,92 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -633,92 +708,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1007,18 +1013,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
@@ -1063,11 +1069,11 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="43"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -1096,11 +1102,11 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
@@ -1197,9 +1203,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1209,10 +1215,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>0</v>
@@ -1265,1015 +1271,1075 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="62"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="62"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="67"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="67"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="53"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="59"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="62"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="62"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="65"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="67"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="53"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="56"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="56"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="59"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="62"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="62"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="67"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="67"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="53"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="56"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="56"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="44"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="59"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="47"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="62"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="62"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="65"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
     </row>
     <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="67"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="53"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="56"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="56"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="44"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="57" t="s">
+      <c r="C59" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="59"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="47"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
-      <c r="J60" s="62"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="62"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="65"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="67"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="53"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="56"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="44"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="56"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="44"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="59"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="47"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="62"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="62"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="65"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="69"/>
-      <c r="J72" s="69"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
     </row>
     <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="67"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="27"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="53"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="54" t="s">
+      <c r="C75" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="56"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="44"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="56"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="44"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="57" t="s">
+      <c r="C77" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="59"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="47"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="60" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="62"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="60" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="62"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="63" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="65"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="69"/>
-      <c r="I81" s="69"/>
-      <c r="J81" s="69"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
     </row>
     <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C82" s="68" t="s">
+      <c r="C82" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="67"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="27"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="53"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="56"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="44"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="56"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="44"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="57" t="s">
+      <c r="C86" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="59"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="47"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="60" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="62"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="60" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="62"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="63" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="64"/>
-      <c r="J89" s="65"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="69"/>
-      <c r="J90" s="69"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
     </row>
     <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C91" s="68" t="s">
+      <c r="C91" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="67"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="27"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="51" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="53"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="56"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="44"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="54" t="s">
+      <c r="C94" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="55"/>
-      <c r="J94" s="56"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="44"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="57" t="s">
+      <c r="C95" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="58"/>
-      <c r="E95" s="58"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="59"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="47"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="60" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="61"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="61"/>
-      <c r="J96" s="62"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="61"/>
-      <c r="J97" s="62"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="63" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="64"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="64"/>
-      <c r="J98" s="65"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -2282,66 +2348,6 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2351,18 +2357,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
@@ -2400,18 +2406,22 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="22">
+        <v>4</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4</v>
+      </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="43"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -2440,11 +2450,11 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
@@ -2541,9 +2551,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2553,13 +2563,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2609,100 +2619,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="C20" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="C21" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -2733,100 +2743,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="69"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="57"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="60"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -2857,100 +2867,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="63"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="66"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="69"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -2981,100 +2991,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="63"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="66"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="66"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="31"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="69"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="34"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="57"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="34"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="57"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="60"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
@@ -3105,92 +3115,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="63"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="28"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="66"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="28"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="66"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="31"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="69"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="34"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="57"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="34"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="60"/>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="24" t="s">
@@ -3205,88 +3215,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="63"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="28"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="66"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="28"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="66"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="31"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="69"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="34"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="34"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="57"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="37"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="60"/>
     </row>
     <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="24" t="s">
@@ -3301,88 +3311,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="40"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="63"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="28"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="66"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="28"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="66"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="31"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="69"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="34"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="57"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="32" t="s">
+      <c r="C79" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="34"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="37"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="60"/>
     </row>
     <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="24" t="s">
@@ -3397,88 +3407,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="40"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="63"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="28"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="66"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="28"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="66"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="31"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="69"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="32" t="s">
+      <c r="C87" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="34"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="32" t="s">
+      <c r="C88" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="34"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="57"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="37"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="60"/>
     </row>
     <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="24" t="s">
@@ -3493,91 +3503,151 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="40"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="63"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="28"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="66"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="28"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="66"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="31"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="68"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="69"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="32" t="s">
+      <c r="C96" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="34"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="57"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="32" t="s">
+      <c r="C97" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
-      <c r="J97" s="34"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="57"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="37"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -3586,66 +3656,6 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3655,18 +3665,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection sqref="A1:Q99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
@@ -3711,11 +3721,11 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="43"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -3744,11 +3754,11 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
@@ -3845,9 +3855,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3857,10 +3867,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>0</v>
@@ -3913,100 +3923,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -4037,100 +4047,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="69"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="57"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="60"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -4161,100 +4171,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="63"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="66"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="69"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -4285,100 +4295,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="63"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="66"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="66"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="31"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="69"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="34"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="57"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="34"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="57"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="60"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
@@ -4409,92 +4419,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="63"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="28"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="66"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="28"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="66"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="31"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="69"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="34"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="57"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="34"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="60"/>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="24" t="s">
@@ -4509,88 +4519,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="63"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="28"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="66"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="28"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="66"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="31"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="69"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="34"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="57"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="34"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="57"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="37"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="60"/>
     </row>
     <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="24" t="s">
@@ -4605,88 +4615,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="40"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="63"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="28"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="66"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="28"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="66"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="31"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="69"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="34"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="57"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="32" t="s">
+      <c r="C79" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="34"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="37"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="60"/>
     </row>
     <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="24" t="s">
@@ -4701,88 +4711,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="40"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="63"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="28"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="66"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="28"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="66"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="31"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="69"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="32" t="s">
+      <c r="C87" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="34"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="32" t="s">
+      <c r="C88" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="34"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="57"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="37"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="60"/>
     </row>
     <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="24" t="s">
@@ -4797,88 +4807,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="40"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="63"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="28"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="66"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="28"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="66"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="31"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="68"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="69"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="32" t="s">
+      <c r="C96" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="34"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="57"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="32" t="s">
+      <c r="C97" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
-      <c r="J97" s="34"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="57"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="37"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="60"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C100" s="9"/>
@@ -4962,6 +4972,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
     <mergeCell ref="C34:J34"/>
     <mergeCell ref="C35:J35"/>
     <mergeCell ref="A1:C1"/>
@@ -4978,58 +5040,6 @@
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C69:J69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
     <sheet name="Lukasz" sheetId="2" r:id="rId2"/>
     <sheet name="Youssef" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="46">
   <si>
     <t>Dag:</t>
   </si>
@@ -154,11 +154,17 @@
   <si>
     <t>Dinsdag: Ik ben klaar met code convention en ik ben begonnen met email maken.</t>
   </si>
+  <si>
+    <t>Maandag: de git depo gemaakt, berijkbaarheids lijst gemaakt, iedereen een taak geven wat ze moeten doen voor die dag</t>
+  </si>
+  <si>
+    <t>Dinsdag: begonnen aan de intervieuw vragen de style van logboek verandert,documten van andere na gekeken</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,6 +612,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -633,33 +657,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -680,6 +677,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -707,24 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1013,18 +1019,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
@@ -1062,18 +1068,22 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="22">
+        <v>4</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4</v>
+      </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -1102,11 +1112,11 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
@@ -1203,9 +1213,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1215,13 +1225,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1271,100 +1281,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="C20" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
+      <c r="C21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -1395,100 +1405,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -1519,100 +1529,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="47"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -1643,100 +1653,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="44"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="44"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="47"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
@@ -1767,92 +1777,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="44"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="44"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="44"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="47"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="41"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C63" s="29"/>
@@ -1877,88 +1887,88 @@
       <c r="J64" s="27"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="44"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="44"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="44"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="32"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="47"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="35"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="38"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="41"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C72" s="29"/>
@@ -1983,88 +1993,88 @@
       <c r="J73" s="27"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="44"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="44"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="44"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="32"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="47"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="35"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="38"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="38"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="41"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C81" s="29"/>
@@ -2089,88 +2099,88 @@
       <c r="J82" s="27"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="44"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="44"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="32"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="42" t="s">
+      <c r="C85" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="44"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="32"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="45" t="s">
+      <c r="C86" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="47"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="35"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="38"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="38"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="41"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C90" s="29"/>
@@ -2195,151 +2205,91 @@
       <c r="J91" s="27"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="44"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="42" t="s">
+      <c r="C93" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="44"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="42" t="s">
+      <c r="C94" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="44"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="32"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="45" t="s">
+      <c r="C95" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="47"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="35"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="38"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="38"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -2348,6 +2298,66 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2357,18 +2367,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
@@ -2417,11 +2427,11 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -2450,11 +2460,11 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
@@ -2551,9 +2561,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2563,10 +2573,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>8</v>
@@ -2619,100 +2629,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -2743,100 +2753,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="69"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="60"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="66"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -2867,100 +2877,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="66"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="57"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="69"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="60"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="57"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="63"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="57"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="60"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -2991,100 +3001,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="63"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="69"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="66"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="57"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="66"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="57"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="69"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="60"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="57"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="63"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="57"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="63"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="60"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="66"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
@@ -3115,92 +3125,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="63"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="66"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="64" t="s">
+      <c r="C58" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="66"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="57"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="69"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="60"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="57"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="63"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="63"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="60"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="66"/>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="24" t="s">
@@ -3215,88 +3225,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="63"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="69"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="66"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="57"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="66"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="69"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="60"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="63"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="57"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="63"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="60"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="66"/>
     </row>
     <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="24" t="s">
@@ -3311,88 +3321,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="61" t="s">
+      <c r="C74" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="63"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="69"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="66"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="66"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="57"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="67" t="s">
+      <c r="C77" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="68"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="69"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="60"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="57"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="63"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="63"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="60"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="66"/>
     </row>
     <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="24" t="s">
@@ -3407,88 +3417,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="63"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="69"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="64" t="s">
+      <c r="C84" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="66"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="57"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="64" t="s">
+      <c r="C85" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="66"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="67" t="s">
+      <c r="C86" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="69"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="60"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="55" t="s">
+      <c r="C87" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="63"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="57"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="63"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="60"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="65"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="66"/>
     </row>
     <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="24" t="s">
@@ -3503,151 +3513,91 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="61" t="s">
+      <c r="C92" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="63"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="69"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="64" t="s">
+      <c r="C93" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65"/>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="66"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="57"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="65"/>
-      <c r="J94" s="66"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="57"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="67" t="s">
+      <c r="C95" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="68"/>
-      <c r="H95" s="68"/>
-      <c r="I95" s="68"/>
-      <c r="J95" s="69"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="60"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="55" t="s">
+      <c r="C96" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="57"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="62"/>
+      <c r="J96" s="63"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="55" t="s">
+      <c r="C97" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="57"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="62"/>
+      <c r="J97" s="63"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="58" t="s">
+      <c r="C98" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="60"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -3656,6 +3606,66 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3672,11 +3682,11 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
@@ -3721,11 +3731,11 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -3754,11 +3764,11 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
@@ -3855,9 +3865,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3867,10 +3877,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>0</v>
@@ -3923,100 +3933,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -4047,100 +4057,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="69"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="60"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="66"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -4171,100 +4181,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="66"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="57"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="69"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="60"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="57"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="63"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="57"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="60"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -4295,100 +4305,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="63"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="69"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="66"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="57"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="66"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="57"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="69"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="60"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="57"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="63"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="57"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="63"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="60"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="66"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
@@ -4419,92 +4429,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="63"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="66"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="64" t="s">
+      <c r="C58" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="66"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="57"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="69"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="60"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="57"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="63"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="63"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="60"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="66"/>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="24" t="s">
@@ -4519,88 +4529,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="63"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="69"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="66"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="57"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="66"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="69"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="60"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="63"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="57"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="63"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="60"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="66"/>
     </row>
     <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="24" t="s">
@@ -4615,88 +4625,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="61" t="s">
+      <c r="C74" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="63"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="69"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="66"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="66"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="57"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="67" t="s">
+      <c r="C77" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="68"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="69"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="60"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="57"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="63"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="63"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="60"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="66"/>
     </row>
     <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="24" t="s">
@@ -4711,88 +4721,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="63"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="69"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="64" t="s">
+      <c r="C84" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="66"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="57"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="64" t="s">
+      <c r="C85" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="66"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="57"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="67" t="s">
+      <c r="C86" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="69"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="60"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="55" t="s">
+      <c r="C87" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="63"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="57"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="63"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="60"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="65"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="66"/>
     </row>
     <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="24" t="s">
@@ -4807,88 +4817,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="61" t="s">
+      <c r="C92" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="63"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="69"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="64" t="s">
+      <c r="C93" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65"/>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="66"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="57"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="65"/>
-      <c r="J94" s="66"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="57"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="67" t="s">
+      <c r="C95" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="68"/>
-      <c r="H95" s="68"/>
-      <c r="I95" s="68"/>
-      <c r="J95" s="69"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="60"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="55" t="s">
+      <c r="C96" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="57"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="62"/>
+      <c r="J96" s="63"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="55" t="s">
+      <c r="C97" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="57"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="62"/>
+      <c r="J97" s="63"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="58" t="s">
+      <c r="C98" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="60"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="66"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C100" s="9"/>
@@ -4972,6 +4982,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C95:J95"/>
@@ -4988,58 +5050,6 @@
     <mergeCell ref="C79:J79"/>
     <mergeCell ref="C80:J80"/>
     <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
     <sheet name="Lukasz" sheetId="2" r:id="rId2"/>
     <sheet name="Youssef" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="48">
   <si>
     <t>Dag:</t>
   </si>
@@ -160,11 +160,17 @@
   <si>
     <t>Dinsdag: begonnen aan de intervieuw vragen de style van logboek verandert,documten van andere na gekeken</t>
   </si>
+  <si>
+    <t>Maandag: Samenwerkingscontract gemaakt en alle documenten gedownload.</t>
+  </si>
+  <si>
+    <t>Dinsdag: Urenlijst met logboek gemaakt, huisstyle geüpdatet en samenwerkingscontract geüpdatet .</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,7 +575,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -685,51 +691,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1019,26 +980,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="54"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1046,7 @@
       <c r="P5" s="46"/>
       <c r="Q5" s="47"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1101,7 +1062,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1079,7 @@
       <c r="P7" s="49"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1133,7 +1094,7 @@
       <c r="P8" s="17"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1110,7 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1125,7 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1137,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1188,7 +1149,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1161,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1173,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -1223,7 +1184,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="52" t="s">
         <v>12</v>
@@ -1238,7 +1199,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -1250,7 +1211,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="23" t="s">
         <v>23</v>
@@ -1264,7 +1225,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="24" t="s">
@@ -1278,7 +1239,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="42" t="s">
@@ -1292,7 +1253,7 @@
       <c r="I20" s="43"/>
       <c r="J20" s="44"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="30" t="s">
@@ -1306,7 +1267,7 @@
       <c r="I21" s="31"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="30" t="s">
@@ -1320,7 +1281,7 @@
       <c r="I22" s="31"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
       <c r="C23" s="33" t="s">
@@ -1334,7 +1295,7 @@
       <c r="I23" s="34"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="36" t="s">
@@ -1348,7 +1309,7 @@
       <c r="I24" s="37"/>
       <c r="J24" s="38"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="36" t="s">
@@ -1362,7 +1323,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="39" t="s">
@@ -1376,7 +1337,7 @@
       <c r="I26" s="40"/>
       <c r="J26" s="41"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="26"/>
@@ -1388,7 +1349,7 @@
       <c r="I27" s="26"/>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="28" t="s">
@@ -1402,7 +1363,7 @@
       <c r="I28" s="26"/>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="42" t="s">
@@ -1416,7 +1377,7 @@
       <c r="I29" s="43"/>
       <c r="J29" s="44"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="30" t="s">
@@ -1430,7 +1391,7 @@
       <c r="I30" s="31"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="30" t="s">
@@ -1444,7 +1405,7 @@
       <c r="I31" s="31"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="33" t="s">
@@ -1458,7 +1419,7 @@
       <c r="I32" s="34"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="36" t="s">
@@ -1472,7 +1433,7 @@
       <c r="I33" s="37"/>
       <c r="J33" s="38"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="36" t="s">
@@ -1486,7 +1447,7 @@
       <c r="I34" s="37"/>
       <c r="J34" s="38"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
       <c r="C35" s="39" t="s">
@@ -1500,7 +1461,7 @@
       <c r="I35" s="40"/>
       <c r="J35" s="41"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="27"/>
@@ -1512,7 +1473,7 @@
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="28" t="s">
@@ -1526,7 +1487,7 @@
       <c r="I37" s="26"/>
       <c r="J37" s="27"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="42" t="s">
@@ -1540,7 +1501,7 @@
       <c r="I38" s="43"/>
       <c r="J38" s="44"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="30" t="s">
@@ -1554,7 +1515,7 @@
       <c r="I39" s="31"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="30" t="s">
@@ -1568,7 +1529,7 @@
       <c r="I40" s="31"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="33" t="s">
@@ -1582,7 +1543,7 @@
       <c r="I41" s="34"/>
       <c r="J41" s="35"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="36" t="s">
@@ -1596,7 +1557,7 @@
       <c r="I42" s="37"/>
       <c r="J42" s="38"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="36" t="s">
@@ -1610,7 +1571,7 @@
       <c r="I43" s="37"/>
       <c r="J43" s="38"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="39" t="s">
@@ -1624,7 +1585,7 @@
       <c r="I44" s="40"/>
       <c r="J44" s="41"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="26"/>
@@ -1636,7 +1597,7 @@
       <c r="I45" s="26"/>
       <c r="J45" s="27"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="28" t="s">
@@ -1650,7 +1611,7 @@
       <c r="I46" s="26"/>
       <c r="J46" s="27"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
       <c r="C47" s="42" t="s">
@@ -1664,7 +1625,7 @@
       <c r="I47" s="43"/>
       <c r="J47" s="44"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="30" t="s">
@@ -1678,7 +1639,7 @@
       <c r="I48" s="31"/>
       <c r="J48" s="32"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="30" t="s">
@@ -1692,7 +1653,7 @@
       <c r="I49" s="31"/>
       <c r="J49" s="32"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="33" t="s">
@@ -1706,7 +1667,7 @@
       <c r="I50" s="34"/>
       <c r="J50" s="35"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="36" t="s">
@@ -1720,7 +1681,7 @@
       <c r="I51" s="37"/>
       <c r="J51" s="38"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="36" t="s">
@@ -1734,7 +1695,7 @@
       <c r="I52" s="37"/>
       <c r="J52" s="38"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="39" t="s">
@@ -1748,7 +1709,7 @@
       <c r="I53" s="40"/>
       <c r="J53" s="41"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="27"/>
@@ -1760,7 +1721,7 @@
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="28" t="s">
@@ -1774,7 +1735,7 @@
       <c r="I55" s="26"/>
       <c r="J55" s="27"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="42" t="s">
@@ -1788,7 +1749,7 @@
       <c r="I56" s="43"/>
       <c r="J56" s="44"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="30" t="s">
@@ -1802,7 +1763,7 @@
       <c r="I57" s="31"/>
       <c r="J57" s="32"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="30" t="s">
@@ -1816,7 +1777,7 @@
       <c r="I58" s="31"/>
       <c r="J58" s="32"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" s="33" t="s">
         <v>29</v>
       </c>
@@ -1828,7 +1789,7 @@
       <c r="I59" s="34"/>
       <c r="J59" s="35"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" s="36" t="s">
         <v>30</v>
       </c>
@@ -1840,7 +1801,7 @@
       <c r="I60" s="37"/>
       <c r="J60" s="38"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C61" s="36" t="s">
         <v>31</v>
       </c>
@@ -1852,7 +1813,7 @@
       <c r="I61" s="37"/>
       <c r="J61" s="38"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C62" s="39" t="s">
         <v>32</v>
       </c>
@@ -1864,7 +1825,7 @@
       <c r="I62" s="40"/>
       <c r="J62" s="41"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -1874,7 +1835,7 @@
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
     </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="28" t="s">
         <v>36</v>
       </c>
@@ -1886,7 +1847,7 @@
       <c r="I64" s="26"/>
       <c r="J64" s="27"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C65" s="42" t="s">
         <v>26</v>
       </c>
@@ -1898,7 +1859,7 @@
       <c r="I65" s="43"/>
       <c r="J65" s="44"/>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C66" s="30" t="s">
         <v>27</v>
       </c>
@@ -1910,7 +1871,7 @@
       <c r="I66" s="31"/>
       <c r="J66" s="32"/>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C67" s="30" t="s">
         <v>28</v>
       </c>
@@ -1922,7 +1883,7 @@
       <c r="I67" s="31"/>
       <c r="J67" s="32"/>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C68" s="33" t="s">
         <v>29</v>
       </c>
@@ -1934,7 +1895,7 @@
       <c r="I68" s="34"/>
       <c r="J68" s="35"/>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C69" s="36" t="s">
         <v>30</v>
       </c>
@@ -1946,7 +1907,7 @@
       <c r="I69" s="37"/>
       <c r="J69" s="38"/>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C70" s="36" t="s">
         <v>31</v>
       </c>
@@ -1958,7 +1919,7 @@
       <c r="I70" s="37"/>
       <c r="J70" s="38"/>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C71" s="39" t="s">
         <v>32</v>
       </c>
@@ -1970,7 +1931,7 @@
       <c r="I71" s="40"/>
       <c r="J71" s="41"/>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
@@ -1980,7 +1941,7 @@
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
     </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="28" t="s">
         <v>37</v>
       </c>
@@ -1992,7 +1953,7 @@
       <c r="I73" s="26"/>
       <c r="J73" s="27"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C74" s="42" t="s">
         <v>26</v>
       </c>
@@ -2004,7 +1965,7 @@
       <c r="I74" s="43"/>
       <c r="J74" s="44"/>
     </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C75" s="30" t="s">
         <v>27</v>
       </c>
@@ -2016,7 +1977,7 @@
       <c r="I75" s="31"/>
       <c r="J75" s="32"/>
     </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C76" s="30" t="s">
         <v>28</v>
       </c>
@@ -2028,7 +1989,7 @@
       <c r="I76" s="31"/>
       <c r="J76" s="32"/>
     </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C77" s="33" t="s">
         <v>29</v>
       </c>
@@ -2040,7 +2001,7 @@
       <c r="I77" s="34"/>
       <c r="J77" s="35"/>
     </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C78" s="36" t="s">
         <v>30</v>
       </c>
@@ -2052,7 +2013,7 @@
       <c r="I78" s="37"/>
       <c r="J78" s="38"/>
     </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C79" s="36" t="s">
         <v>31</v>
       </c>
@@ -2064,7 +2025,7 @@
       <c r="I79" s="37"/>
       <c r="J79" s="38"/>
     </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C80" s="39" t="s">
         <v>32</v>
       </c>
@@ -2076,7 +2037,7 @@
       <c r="I80" s="40"/>
       <c r="J80" s="41"/>
     </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
@@ -2086,7 +2047,7 @@
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
     </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="28" t="s">
         <v>39</v>
       </c>
@@ -2098,7 +2059,7 @@
       <c r="I82" s="26"/>
       <c r="J82" s="27"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C83" s="42" t="s">
         <v>26</v>
       </c>
@@ -2110,7 +2071,7 @@
       <c r="I83" s="43"/>
       <c r="J83" s="44"/>
     </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C84" s="30" t="s">
         <v>27</v>
       </c>
@@ -2122,7 +2083,7 @@
       <c r="I84" s="31"/>
       <c r="J84" s="32"/>
     </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C85" s="30" t="s">
         <v>28</v>
       </c>
@@ -2134,7 +2095,7 @@
       <c r="I85" s="31"/>
       <c r="J85" s="32"/>
     </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C86" s="33" t="s">
         <v>29</v>
       </c>
@@ -2146,7 +2107,7 @@
       <c r="I86" s="34"/>
       <c r="J86" s="35"/>
     </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C87" s="36" t="s">
         <v>30</v>
       </c>
@@ -2158,7 +2119,7 @@
       <c r="I87" s="37"/>
       <c r="J87" s="38"/>
     </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C88" s="36" t="s">
         <v>31</v>
       </c>
@@ -2170,7 +2131,7 @@
       <c r="I88" s="37"/>
       <c r="J88" s="38"/>
     </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C89" s="39" t="s">
         <v>32</v>
       </c>
@@ -2182,7 +2143,7 @@
       <c r="I89" s="40"/>
       <c r="J89" s="41"/>
     </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
@@ -2192,7 +2153,7 @@
       <c r="I90" s="29"/>
       <c r="J90" s="29"/>
     </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="28" t="s">
         <v>38</v>
       </c>
@@ -2204,7 +2165,7 @@
       <c r="I91" s="26"/>
       <c r="J91" s="27"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C92" s="42" t="s">
         <v>26</v>
       </c>
@@ -2216,7 +2177,7 @@
       <c r="I92" s="43"/>
       <c r="J92" s="44"/>
     </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C93" s="30" t="s">
         <v>27</v>
       </c>
@@ -2228,7 +2189,7 @@
       <c r="I93" s="31"/>
       <c r="J93" s="32"/>
     </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C94" s="30" t="s">
         <v>28</v>
       </c>
@@ -2240,7 +2201,7 @@
       <c r="I94" s="31"/>
       <c r="J94" s="32"/>
     </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C95" s="33" t="s">
         <v>29</v>
       </c>
@@ -2252,7 +2213,7 @@
       <c r="I95" s="34"/>
       <c r="J95" s="35"/>
     </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C96" s="36" t="s">
         <v>30</v>
       </c>
@@ -2264,7 +2225,7 @@
       <c r="I96" s="37"/>
       <c r="J96" s="38"/>
     </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C97" s="36" t="s">
         <v>31</v>
       </c>
@@ -2276,7 +2237,7 @@
       <c r="I97" s="37"/>
       <c r="J97" s="38"/>
     </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C98" s="39" t="s">
         <v>32</v>
       </c>
@@ -2367,26 +2328,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="54"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2412,7 +2373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2433,7 +2394,7 @@
       <c r="P5" s="46"/>
       <c r="Q5" s="47"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2449,7 +2410,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2466,7 +2427,7 @@
       <c r="P7" s="49"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2481,7 +2442,7 @@
       <c r="P8" s="17"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2497,7 +2458,7 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2512,7 +2473,7 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2524,7 +2485,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2536,7 +2497,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2548,7 +2509,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2560,7 +2521,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -2571,7 +2532,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="52" t="s">
         <v>12</v>
@@ -2586,7 +2547,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -2598,7 +2559,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="23" t="s">
         <v>23</v>
@@ -2612,7 +2573,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="24" t="s">
@@ -2626,105 +2587,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -2736,7 +2697,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="24" t="s">
@@ -2750,105 +2711,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="60"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="66"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2860,7 +2821,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="24" t="s">
@@ -2874,105 +2835,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="69"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="57"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="57"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="60"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="63"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="66"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -2984,7 +2945,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="24" t="s">
@@ -2998,105 +2959,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="69"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="44"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="57"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="57"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="60"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="63"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="61" t="s">
+      <c r="C52" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="63"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="66"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3108,7 +3069,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="24" t="s">
@@ -3122,97 +3083,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="69"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="44"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="57"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="58" t="s">
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="60"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="61" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="63"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="61" t="s">
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="63"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="64" t="s">
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="66"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="41"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="24" t="s">
         <v>36</v>
       </c>
@@ -3224,91 +3185,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="67" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="69"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="55" t="s">
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="44"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="57"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="55" t="s">
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="58" t="s">
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="32"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="60"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="61" t="s">
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="63"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="61" t="s">
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="38"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="63"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="64" t="s">
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="66"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="24" t="s">
         <v>37</v>
       </c>
@@ -3320,91 +3281,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="67" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="69"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="55" t="s">
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="44"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="55" t="s">
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="57"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="58" t="s">
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="32"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="60"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="61" t="s">
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="35"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="63"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="61" t="s">
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="38"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="63"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="64" t="s">
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="38"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="66"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="41"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="24" t="s">
         <v>39</v>
       </c>
@@ -3416,91 +3377,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="67" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="69"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="55" t="s">
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="44"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="57"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="55" t="s">
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="32"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="58" t="s">
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="32"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="60"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="61" t="s">
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="35"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="63"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="61" t="s">
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="38"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="63"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="64" t="s">
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="38"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="65"/>
-      <c r="J89" s="66"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="41"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="24" t="s">
         <v>38</v>
       </c>
@@ -3512,89 +3473,89 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="67" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="69"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="55" t="s">
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="44"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="57"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="55" t="s">
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="57"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="58" t="s">
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="32"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="60"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="61" t="s">
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="35"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="63"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="61" t="s">
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="38"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="63"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="64" t="s">
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="38"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="66"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -3676,25 +3637,25 @@
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="54"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3720,12 +3681,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="22">
+        <v>4</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4</v>
+      </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -3737,7 +3702,7 @@
       <c r="P5" s="46"/>
       <c r="Q5" s="47"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3753,7 +3718,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -3770,7 +3735,7 @@
       <c r="P7" s="49"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3785,7 +3750,7 @@
       <c r="P8" s="17"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3801,7 +3766,7 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3816,7 +3781,7 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3828,7 +3793,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -3840,7 +3805,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -3852,7 +3817,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3864,7 +3829,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -3875,7 +3840,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="52" t="s">
         <v>12</v>
@@ -3883,14 +3848,14 @@
       <c r="D16" s="53"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -3902,7 +3867,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="23" t="s">
         <v>23</v>
@@ -3916,7 +3881,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="24" t="s">
@@ -3930,105 +3895,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -4040,7 +4005,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="24" t="s">
@@ -4054,105 +4019,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="60"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="66"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4164,7 +4129,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="24" t="s">
@@ -4178,105 +4143,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="69"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="57"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="57"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="60"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="63"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="66"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -4288,7 +4253,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="24" t="s">
@@ -4302,105 +4267,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="69"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="44"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="57"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="57"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="60"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="63"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="61" t="s">
+      <c r="C52" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="63"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="66"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4412,7 +4377,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="24" t="s">
@@ -4426,97 +4391,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="69"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="44"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="57"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="58" t="s">
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="60"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="61" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="63"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="61" t="s">
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="63"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="64" t="s">
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="66"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="41"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="24" t="s">
         <v>36</v>
       </c>
@@ -4528,91 +4493,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="67" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="69"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="55" t="s">
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="44"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="57"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="55" t="s">
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="58" t="s">
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="32"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="60"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="61" t="s">
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="63"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="61" t="s">
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="38"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="63"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="64" t="s">
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="66"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="24" t="s">
         <v>37</v>
       </c>
@@ -4624,91 +4589,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="67" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="69"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="55" t="s">
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="44"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="55" t="s">
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="57"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="58" t="s">
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="32"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="60"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="61" t="s">
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="35"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="63"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="61" t="s">
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="38"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="63"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="64" t="s">
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="38"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="66"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="41"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="24" t="s">
         <v>39</v>
       </c>
@@ -4720,91 +4685,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="67" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="69"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="55" t="s">
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="44"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="57"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="55" t="s">
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="32"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="57"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="58" t="s">
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="32"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="60"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="61" t="s">
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="35"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="63"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="61" t="s">
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="38"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="63"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="64" t="s">
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="38"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="65"/>
-      <c r="J89" s="66"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="41"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="24" t="s">
         <v>38</v>
       </c>
@@ -4816,91 +4781,91 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="67" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="69"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="55" t="s">
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="44"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="57"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="55" t="s">
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="57"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="58" t="s">
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="32"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="60"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="61" t="s">
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="35"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="63"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="61" t="s">
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="38"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="63"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="64" t="s">
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="38"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="66"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="41"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4910,7 +4875,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -4920,7 +4885,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -4930,7 +4895,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -4940,7 +4905,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -4950,7 +4915,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -4960,7 +4925,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -4970,7 +4935,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>

--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="50">
   <si>
     <t>Dag:</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Dinsdag: Urenlijst met logboek gemaakt, huisstyle geüpdatet en samenwerkingscontract geüpdatet .</t>
+  </si>
+  <si>
+    <t>0 = Ziek</t>
+  </si>
+  <si>
+    <t>(leeg) = afwezig</t>
   </si>
 </sst>
 </file>
@@ -618,24 +624,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -663,6 +651,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,15 +697,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -981,17 +987,17 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:J22"/>
+      <selection activeCell="Q10" sqref="O5:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23" t="s">
@@ -1036,15 +1042,17 @@
         <v>4</v>
       </c>
       <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="22">
+        <v>4</v>
+      </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1073,11 +1081,11 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1090,9 +1098,11 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18"/>
+      <c r="O8" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1106,9 +1116,11 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
+      <c r="O9" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1174,9 +1186,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1186,13 +1198,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="53"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1242,100 +1254,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1366,100 +1378,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1490,100 +1502,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="38"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1614,100 +1626,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="44"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="32"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="32"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="44"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="35"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="47"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="38"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="41"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1738,92 +1750,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="44"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="32"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="44"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="35"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="47"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="38"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="38"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="41"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="29"/>
@@ -1848,88 +1860,88 @@
       <c r="J64" s="27"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="44"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="32"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="44"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="32"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="44"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="35"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="47"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="38"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="38"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="41"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="29"/>
@@ -1954,88 +1966,88 @@
       <c r="J73" s="27"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="42" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="44"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="32"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="44"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="32"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="44"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="35"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="47"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="38"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="38"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="41"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="29"/>
@@ -2060,88 +2072,88 @@
       <c r="J82" s="27"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="44"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="32"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="44"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="32"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="44"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="35"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="47"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="38"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="38"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="39" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="41"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="29"/>
@@ -2166,91 +2178,153 @@
       <c r="J91" s="27"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="42" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="44"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="32"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="44"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="32"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="44"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="35"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="47"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="36" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="38"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="38"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="41"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="70">
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -2259,66 +2333,6 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2328,18 +2342,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="O5:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23" t="s">
@@ -2384,15 +2398,17 @@
         <v>4</v>
       </c>
       <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="22">
+        <v>4</v>
+      </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2421,11 +2437,11 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -2438,9 +2454,11 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18"/>
+      <c r="O8" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -2454,9 +2472,11 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
+      <c r="O9" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -2522,9 +2542,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2534,13 +2554,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="53"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2590,100 +2610,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -2714,100 +2734,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -2838,100 +2858,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="38"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -2962,100 +2982,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="44"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="32"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="32"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="44"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="35"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="47"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="38"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="41"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -3086,92 +3106,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="44"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="32"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="44"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="35"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="47"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="38"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="38"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="41"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="24" t="s">
@@ -3186,88 +3206,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="44"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="32"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="44"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="32"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="44"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="35"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="47"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="38"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="38"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="41"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="24" t="s">
@@ -3282,88 +3302,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="42" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="44"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="32"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="44"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="32"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="44"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="35"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="47"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="38"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="38"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="41"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="24" t="s">
@@ -3378,88 +3398,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="44"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="32"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="44"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="32"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="44"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="35"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="47"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="38"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="38"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="39" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="41"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="24" t="s">
@@ -3474,91 +3494,153 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="42" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="44"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="32"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="44"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="32"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="44"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="35"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="47"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="36" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="38"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="38"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="41"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="70">
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -3567,66 +3649,6 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3636,18 +3658,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23" t="s">
@@ -3692,15 +3714,17 @@
         <v>4</v>
       </c>
       <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="22">
+        <v>4</v>
+      </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -3729,11 +3753,11 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -3746,9 +3770,11 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18"/>
+      <c r="O8" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -3762,9 +3788,11 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
+      <c r="O9" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -3830,9 +3858,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3842,13 +3870,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="53"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -3898,100 +3926,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -4022,100 +4050,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4146,100 +4174,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="38"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -4270,100 +4298,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="44"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="32"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="32"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="44"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="35"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="47"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="38"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="41"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -4394,92 +4422,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="44"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="32"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="44"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="35"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="47"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="38"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="38"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="41"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="24" t="s">
@@ -4494,88 +4522,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="44"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="32"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="44"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="32"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="44"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="35"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="47"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="38"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="38"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="41"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="24" t="s">
@@ -4590,88 +4618,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="42" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="44"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="32"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="44"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="32"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="44"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="35"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="47"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="38"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="38"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="41"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="24" t="s">
@@ -4686,88 +4714,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="44"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="32"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="44"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="32"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="44"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="35"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="47"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="38"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="38"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="39" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="41"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="24" t="s">
@@ -4782,88 +4810,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="42" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="44"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="32"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="44"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="32"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="44"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="35"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="47"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="36" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="38"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="38"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="41"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
@@ -4946,59 +4974,9 @@
       <c r="J107" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
+  <mergeCells count="70">
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C95:J95"/>
@@ -5015,6 +4993,58 @@
     <mergeCell ref="C79:J79"/>
     <mergeCell ref="C80:J80"/>
     <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
     <sheet name="Lukasz" sheetId="2" r:id="rId2"/>
     <sheet name="Youssef" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="51">
   <si>
     <t>Dag:</t>
   </si>
@@ -172,11 +172,14 @@
   <si>
     <t>(leeg) = afwezig</t>
   </si>
+  <si>
+    <t>Donderdag: Code convetions bijgewerkt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,6 +627,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -651,33 +672,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,6 +691,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -983,29 +986,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="O5:Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1048,13 +1051,13 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="47"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1073,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1081,13 +1084,13 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1098,13 +1101,13 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="O8" s="51" t="s">
+      <c r="O8" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1116,13 +1119,13 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1140,7 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1149,7 +1152,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1161,7 +1164,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1173,7 +1176,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1185,10 +1188,10 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1196,12 +1199,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>12</v>
@@ -1211,7 +1214,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -1223,7 +1226,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="23" t="s">
         <v>23</v>
@@ -1237,7 +1240,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="24" t="s">
@@ -1251,105 +1254,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="26"/>
@@ -1361,7 +1364,7 @@
       <c r="I27" s="26"/>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="28" t="s">
@@ -1375,105 +1378,105 @@
       <c r="I28" s="26"/>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="27"/>
@@ -1485,7 +1488,7 @@
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="28" t="s">
@@ -1499,105 +1502,105 @@
       <c r="I37" s="26"/>
       <c r="J37" s="27"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="47"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="26"/>
@@ -1609,7 +1612,7 @@
       <c r="I45" s="26"/>
       <c r="J45" s="27"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="28" t="s">
@@ -1623,105 +1626,105 @@
       <c r="I46" s="26"/>
       <c r="J46" s="27"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="44"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="44"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="44"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="47"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="27"/>
@@ -1733,7 +1736,7 @@
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="28" t="s">
@@ -1747,97 +1750,97 @@
       <c r="I55" s="26"/>
       <c r="J55" s="27"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="44"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="44"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="44"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="45" t="s">
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="47"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="41"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -1847,7 +1850,7 @@
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
     </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="28" t="s">
         <v>36</v>
       </c>
@@ -1859,91 +1862,91 @@
       <c r="I64" s="26"/>
       <c r="J64" s="27"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="42" t="s">
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="44"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="44"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="42" t="s">
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="44"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="45" t="s">
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="32"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="47"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="38"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
@@ -1953,7 +1956,7 @@
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
     </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="28" t="s">
         <v>37</v>
       </c>
@@ -1965,91 +1968,91 @@
       <c r="I73" s="26"/>
       <c r="J73" s="27"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="42" t="s">
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="44"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="44"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="42" t="s">
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="44"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="45" t="s">
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="32"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="47"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="35"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="38"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="38"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="41"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
@@ -2059,7 +2062,7 @@
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
     </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="28" t="s">
         <v>39</v>
       </c>
@@ -2071,91 +2074,91 @@
       <c r="I82" s="26"/>
       <c r="J82" s="27"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="42" t="s">
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="44"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="44"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="42" t="s">
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="32"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="44"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="45" t="s">
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="32"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="47"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="35"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="38"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="38"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="41"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
@@ -2165,7 +2168,7 @@
       <c r="I90" s="29"/>
       <c r="J90" s="29"/>
     </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="28" t="s">
         <v>38</v>
       </c>
@@ -2177,154 +2180,92 @@
       <c r="I91" s="26"/>
       <c r="J91" s="27"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="42" t="s">
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="44"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="44"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="42" t="s">
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="44"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="45" t="s">
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="32"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="47"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="35"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="38"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="38"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -2333,35 +2274,97 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="O5:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2404,13 +2407,13 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="47"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2426,7 +2429,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2437,13 +2440,13 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2454,13 +2457,13 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="O8" s="51" t="s">
+      <c r="O8" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2472,13 +2475,13 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2493,7 +2496,7 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2505,7 +2508,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2517,7 +2520,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2529,7 +2532,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2541,10 +2544,10 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2552,12 +2555,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>12</v>
@@ -2567,7 +2570,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -2579,7 +2582,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="23" t="s">
         <v>23</v>
@@ -2593,7 +2596,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="24" t="s">
@@ -2607,105 +2610,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -2717,7 +2720,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="24" t="s">
@@ -2731,105 +2734,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2841,7 +2844,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="24" t="s">
@@ -2855,105 +2858,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="47"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -2965,7 +2968,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="24" t="s">
@@ -2979,105 +2982,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="44"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="44"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="44"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="47"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3089,7 +3092,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="24" t="s">
@@ -3103,97 +3106,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="44"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="44"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="44"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="45" t="s">
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="47"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="41"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="24" t="s">
         <v>36</v>
       </c>
@@ -3205,91 +3208,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="42" t="s">
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="44"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="44"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="42" t="s">
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="44"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="45" t="s">
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="32"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="47"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="38"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="24" t="s">
         <v>37</v>
       </c>
@@ -3301,91 +3304,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="42" t="s">
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="44"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="44"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="42" t="s">
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="44"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="45" t="s">
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="32"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="47"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="35"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="38"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="38"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="41"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="24" t="s">
         <v>39</v>
       </c>
@@ -3397,91 +3400,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="42" t="s">
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="44"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="44"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="42" t="s">
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="32"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="44"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="45" t="s">
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="32"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="47"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="35"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="38"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="38"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="41"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="24" t="s">
         <v>38</v>
       </c>
@@ -3493,154 +3496,92 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="42" t="s">
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="44"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="44"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="42" t="s">
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="44"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="45" t="s">
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="32"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="47"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="35"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="38"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="38"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -3649,35 +3590,97 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3720,13 +3723,13 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="47"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3742,7 +3745,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -3753,13 +3756,13 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3770,13 +3773,13 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="O8" s="51" t="s">
+      <c r="O8" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3788,13 +3791,13 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3809,7 +3812,7 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3821,7 +3824,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -3833,7 +3836,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -3845,7 +3848,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3857,10 +3860,10 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3868,12 +3871,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="25">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>12</v>
@@ -3883,7 +3886,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -3895,7 +3898,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="23" t="s">
         <v>23</v>
@@ -3909,7 +3912,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="24" t="s">
@@ -3923,105 +3926,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -4033,7 +4036,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="24" t="s">
@@ -4047,105 +4050,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4157,7 +4160,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="24" t="s">
@@ -4171,105 +4174,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="47"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -4281,7 +4284,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="24" t="s">
@@ -4295,105 +4298,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="44"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="44"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="44"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="47"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4405,7 +4408,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="24" t="s">
@@ -4419,97 +4422,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="44"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="44"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="44"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="45" t="s">
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="47"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="41"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="24" t="s">
         <v>36</v>
       </c>
@@ -4521,91 +4524,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="42" t="s">
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="44"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="44"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="42" t="s">
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="44"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="45" t="s">
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="32"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="47"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="38"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="24" t="s">
         <v>37</v>
       </c>
@@ -4617,91 +4620,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="42" t="s">
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="44"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="44"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="42" t="s">
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="44"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="45" t="s">
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="32"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="47"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="35"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="38"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="38"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="41"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="24" t="s">
         <v>39</v>
       </c>
@@ -4713,91 +4716,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="42" t="s">
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="44"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="44"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="42" t="s">
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="32"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="44"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="45" t="s">
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="32"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="47"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="35"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="38"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="38"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="41"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="24" t="s">
         <v>38</v>
       </c>
@@ -4809,91 +4812,91 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="42" t="s">
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="44"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="44"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="42" t="s">
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="44"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="45" t="s">
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="32"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="47"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="35"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="38"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="38"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="41"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4903,7 +4906,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -4913,7 +4916,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -4923,7 +4926,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -4933,7 +4936,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -4943,7 +4946,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -4953,7 +4956,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -4963,7 +4966,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -4975,67 +4978,6 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
     <mergeCell ref="C29:J29"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="C31:J31"/>
@@ -5045,6 +4987,67 @@
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="59">
   <si>
     <t>Dag:</t>
   </si>
@@ -149,40 +149,55 @@
     <t>V-week = vakantie week</t>
   </si>
   <si>
-    <t>Maandag: Ik ben begonnen met code convention en huisstijl.</t>
-  </si>
-  <si>
-    <t>Dinsdag: Ik ben klaar met code convention en ik ben begonnen met email maken.</t>
-  </si>
-  <si>
-    <t>Maandag: de git depo gemaakt, berijkbaarheids lijst gemaakt, iedereen een taak geven wat ze moeten doen voor die dag</t>
-  </si>
-  <si>
-    <t>Dinsdag: begonnen aan de intervieuw vragen de style van logboek verandert,documten van andere na gekeken</t>
-  </si>
-  <si>
-    <t>Maandag: Samenwerkingscontract gemaakt en alle documenten gedownload.</t>
-  </si>
-  <si>
-    <t>Dinsdag: Urenlijst met logboek gemaakt, huisstyle geüpdatet en samenwerkingscontract geüpdatet .</t>
-  </si>
-  <si>
     <t>0 = Ziek</t>
   </si>
   <si>
     <t>(leeg) = afwezig</t>
   </si>
   <si>
-    <t>Donderdag: Code convetions bijgewerkt.</t>
-  </si>
-  <si>
-    <t>Donderdag: 1 mail geüpdatet en 1 mail gemaakt.</t>
-  </si>
-  <si>
     <t>nvt = niet van toepassing</t>
   </si>
   <si>
     <t>nvt</t>
+  </si>
+  <si>
+    <t>Maandag (4-9-2017): Ik ben begonnen met code convention en huisstijl.</t>
+  </si>
+  <si>
+    <t>Dinsdag (5-9-2017): Ik ben klaar met code convention en ik ben begonnen met email maken.</t>
+  </si>
+  <si>
+    <t>Woensdag (6-9-2017) :</t>
+  </si>
+  <si>
+    <t>Donderdag (7-9-2017) : Code convetions bijgewerkt.</t>
+  </si>
+  <si>
+    <t>Vrijdag (8-9-2017) :</t>
+  </si>
+  <si>
+    <t>Zaterdag (9-9-2017) :</t>
+  </si>
+  <si>
+    <t>Zondag (10-9-2017):</t>
+  </si>
+  <si>
+    <t>Donderdag (7-9-2017)  :</t>
+  </si>
+  <si>
+    <t>Dinsdag (5-9-2017) : begonnen aan de intervieuw vragen de style van logboek verandert,documten van andere na gekeken</t>
+  </si>
+  <si>
+    <t>Maandag (4-9-2017) : de git depo gemaakt, berijkbaarheids lijst gemaakt, iedereen een taak geven wat ze moeten doen voor die dag</t>
+  </si>
+  <si>
+    <t>Dinsdag (5-9-2017):  Urenlijst met logboek gemaakt, huisstyle geüpdatet en samenwerkingscontract geüpdatet .</t>
+  </si>
+  <si>
+    <t>Maandag (4-9-2017) : Samenwerkingscontract gemaakt en alle documenten gedownload.</t>
+  </si>
+  <si>
+    <t>Donderdag (7-9-2017) : 1 mail geüpdatet en 1 mail gemaakt (inhoudelijk).</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1020,7 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O5:Q10"/>
+      <selection activeCell="C29" sqref="C29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G5" s="19">
         <v>4</v>
@@ -1119,7 +1134,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="O8" s="48" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P8" s="49"/>
       <c r="Q8" s="50"/>
@@ -1137,7 +1152,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="6"/>
       <c r="O9" s="48" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P9" s="49"/>
       <c r="Q9" s="50"/>
@@ -1154,7 +1169,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="O10" s="52" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P10" s="53"/>
       <c r="Q10" s="54"/>
@@ -1277,7 +1292,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="33" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -1291,7 +1306,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="39" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -1305,7 +1320,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="39" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -1319,7 +1334,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
       <c r="C23" s="42" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -1333,7 +1348,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -1347,7 +1362,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="27" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -1361,7 +1376,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="30" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -2365,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G5" s="19">
         <v>4</v>
@@ -2480,7 +2495,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="O8" s="48" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P8" s="49"/>
       <c r="Q8" s="50"/>
@@ -2498,7 +2513,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="6"/>
       <c r="O9" s="48" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P9" s="49"/>
       <c r="Q9" s="50"/>
@@ -2515,7 +2530,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="O10" s="52" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P10" s="53"/>
       <c r="Q10" s="54"/>
@@ -2638,7 +2653,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -2652,7 +2667,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -2666,7 +2681,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="39" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -2680,7 +2695,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
       <c r="C23" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -2694,7 +2709,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -2708,7 +2723,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="27" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -2722,7 +2737,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="30" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -3686,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G5" s="19">
         <v>4</v>
@@ -3801,7 +3816,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="O8" s="48" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P8" s="49"/>
       <c r="Q8" s="50"/>
@@ -3819,7 +3834,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="6"/>
       <c r="O9" s="48" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P9" s="49"/>
       <c r="Q9" s="50"/>
@@ -3836,7 +3851,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="O10" s="52" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P10" s="53"/>
       <c r="Q10" s="54"/>
@@ -3959,7 +3974,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="33" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -3973,7 +3988,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="39" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -3987,7 +4002,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="39" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -4001,7 +4016,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
       <c r="C23" s="42" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -4015,7 +4030,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -4029,7 +4044,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="27" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -4043,7 +4058,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="30" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -5007,28 +5022,32 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="C87:J87"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
     <mergeCell ref="C76:J76"/>
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C78:J78"/>
     <mergeCell ref="C79:J79"/>
     <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
     <mergeCell ref="C98:J98"/>
     <mergeCell ref="C88:J88"/>
     <mergeCell ref="C89:J89"/>
@@ -5037,11 +5056,7 @@
     <mergeCell ref="C94:J94"/>
     <mergeCell ref="C96:J96"/>
     <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C95:J95"/>
     <mergeCell ref="C56:J56"/>
     <mergeCell ref="C57:J57"/>
     <mergeCell ref="C58:J58"/>

--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -185,19 +185,43 @@
     <t>Donderdag (7-9-2017)  :</t>
   </si>
   <si>
-    <t>Dinsdag (5-9-2017) : begonnen aan de intervieuw vragen de style van logboek verandert,documten van andere na gekeken</t>
-  </si>
-  <si>
-    <t>Maandag (4-9-2017) : de git depo gemaakt, berijkbaarheids lijst gemaakt, iedereen een taak geven wat ze moeten doen voor die dag</t>
-  </si>
-  <si>
-    <t>Dinsdag (5-9-2017):  Urenlijst met logboek gemaakt, huisstyle geüpdatet en samenwerkingscontract geüpdatet .</t>
-  </si>
-  <si>
-    <t>Maandag (4-9-2017) : Samenwerkingscontract gemaakt en alle documenten gedownload.</t>
-  </si>
-  <si>
-    <t>Donderdag (7-9-2017) : 1 mail geüpdatet en 1 mail gemaakt (inhoudelijk).</t>
+    <t>Donderdag (7-9-2017) : 1 mail geüpdatet , 1 mail gemaakt (inhoudelijk) en interview vragen geüpdatet .</t>
+  </si>
+  <si>
+    <t>Dinsdag (5-9-2017) : begonnen aan de interview vragen de style van logboek verandert,documten van andere na gekeken.</t>
+  </si>
+  <si>
+    <t>Maandag (4-9-2017) : de git depo gemaakt, berijkbaarheids lijst gemaakt, iedereen een taak geven wat ze moeten doen voor die dag.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dinsdag (5-9-2017):  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Urenlijst met logboek gemaakt, huisstyle geüpdatet en samenwerkingscontract geüpdatet .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maandag (4-9-2017) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Samenwerkingscontract gemaakt en alle documenten gedownload.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -648,6 +672,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -675,33 +717,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,6 +738,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -730,6 +751,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1020,17 +1044,17 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:J29"/>
+      <selection activeCell="C20" sqref="C20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
@@ -1083,11 +1107,11 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1116,11 +1140,11 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1133,11 +1157,11 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="O8" s="48" t="s">
+      <c r="O8" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="50"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1151,11 +1175,11 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="48" t="s">
+      <c r="O9" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1168,11 +1192,11 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="O10" s="52" t="s">
+      <c r="O10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -1223,9 +1247,9 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1235,10 +1259,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="22">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>12</v>
@@ -1291,100 +1315,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
+      <c r="C20" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
+      <c r="C21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="32"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1415,100 +1439,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="35"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1539,100 +1563,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="41"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="44"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="29"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="29"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1663,100 +1687,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="44"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="29"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="35"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="29"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="35"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="32"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="38"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1787,92 +1811,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="35"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="41"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="41"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="44"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="32"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="29"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="29"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="32"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="38"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="26"/>
@@ -1897,88 +1921,88 @@
       <c r="J64" s="24"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="35"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="41"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="41"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="29"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="41"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="29"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="44"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="32"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="29"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="35"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="29"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="35"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="32"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="38"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="26"/>
@@ -2003,88 +2027,88 @@
       <c r="J73" s="24"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="35"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="41"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="41"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="41"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="29"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="44"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="32"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="29"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="35"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="29"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="35"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="32"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="38"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="26"/>
@@ -2109,88 +2133,88 @@
       <c r="J82" s="24"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="35"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="41"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="41"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="29"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="41"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="29"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="44"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="32"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="29"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="35"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="29"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="35"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="32"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="38"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="26"/>
@@ -2215,146 +2239,99 @@
       <c r="J91" s="24"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="35"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="41"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="39" t="s">
+      <c r="C93" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="41"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="29"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="39" t="s">
+      <c r="C94" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="41"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="29"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="44"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="32"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="29"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="35"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="29"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="35"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="32"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2363,14 +2340,61 @@
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2387,11 +2411,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
@@ -2444,11 +2468,11 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2477,11 +2501,11 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -2494,11 +2518,11 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="O8" s="48" t="s">
+      <c r="O8" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="50"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -2512,11 +2536,11 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="48" t="s">
+      <c r="O9" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -2529,11 +2553,11 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="O10" s="52" t="s">
+      <c r="O10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -2584,9 +2608,9 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2596,10 +2620,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="22">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>12</v>
@@ -2652,100 +2676,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="32"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -2776,100 +2800,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="35"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -2900,100 +2924,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="41"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="44"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="29"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="29"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -3024,100 +3048,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="44"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="29"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="35"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="29"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="35"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="32"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="38"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -3148,92 +3172,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="35"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="41"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="41"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="44"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="32"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="29"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="29"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="32"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="38"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="21" t="s">
@@ -3248,88 +3272,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="35"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="41"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="41"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="29"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="41"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="29"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="44"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="32"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="29"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="35"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="29"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="35"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="32"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="38"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="21" t="s">
@@ -3344,88 +3368,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="35"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="41"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="41"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="41"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="29"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="44"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="32"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="29"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="35"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="29"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="35"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="32"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="38"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="21" t="s">
@@ -3440,88 +3464,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="35"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="41"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="41"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="29"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="41"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="29"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="44"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="32"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="29"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="35"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="29"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="35"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="32"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="38"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="21" t="s">
@@ -3536,146 +3560,99 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="35"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="41"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="39" t="s">
+      <c r="C93" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="41"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="29"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="39" t="s">
+      <c r="C94" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="41"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="29"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="44"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="32"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="29"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="35"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="29"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="35"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="32"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3684,14 +3661,61 @@
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3702,17 +3726,17 @@
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
@@ -3765,11 +3789,11 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -3798,11 +3822,11 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -3815,11 +3839,11 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="O8" s="48" t="s">
+      <c r="O8" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="50"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -3833,11 +3857,11 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="48" t="s">
+      <c r="O9" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -3850,11 +3874,11 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="O10" s="52" t="s">
+      <c r="O10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -3905,9 +3929,9 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3917,10 +3941,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="22">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>12</v>
@@ -3973,100 +3997,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
+      <c r="C20" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
+      <c r="C21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+      <c r="C23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="32"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -4097,100 +4121,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="35"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4221,100 +4245,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="41"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="44"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="29"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="29"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -4345,100 +4369,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="44"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="29"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="35"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="29"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="35"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="32"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="38"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -4469,92 +4493,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="35"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="41"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="41"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="44"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="32"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="29"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="29"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="32"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="38"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="21" t="s">
@@ -4569,88 +4593,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="35"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="41"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="41"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="29"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="41"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="29"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="44"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="32"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="29"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="35"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="29"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="35"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="32"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="38"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="21" t="s">
@@ -4665,88 +4689,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="35"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="41"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="41"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="41"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="29"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="44"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="32"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="29"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="35"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="29"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="35"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="32"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="38"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="21" t="s">
@@ -4761,88 +4785,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="35"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="41"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="41"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="29"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="41"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="29"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="44"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="32"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="29"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="35"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="29"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="35"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="32"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="38"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="21" t="s">
@@ -4857,88 +4881,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="35"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="41"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="39" t="s">
+      <c r="C93" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="41"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="29"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="39" t="s">
+      <c r="C94" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="41"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="29"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="44"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="32"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="29"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="35"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="29"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="35"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="32"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="38"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
@@ -5022,6 +5046,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
     <mergeCell ref="C87:J87"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O8:Q8"/>
@@ -5038,61 +5117,6 @@
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="61">
   <si>
     <t>Dag:</t>
   </si>
@@ -170,19 +170,10 @@
     <t>Woensdag (6-9-2017) :</t>
   </si>
   <si>
-    <t>Donderdag (7-9-2017) : Code convetions bijgewerkt.</t>
-  </si>
-  <si>
-    <t>Vrijdag (8-9-2017) :</t>
-  </si>
-  <si>
     <t>Zaterdag (9-9-2017) :</t>
   </si>
   <si>
     <t>Zondag (10-9-2017):</t>
-  </si>
-  <si>
-    <t>Donderdag (7-9-2017)  :</t>
   </si>
   <si>
     <t>Donderdag (7-9-2017) : 1 mail geüpdatet , 1 mail gemaakt (inhoudelijk) en interview vragen geüpdatet .</t>
@@ -222,6 +213,21 @@
       </rPr>
       <t>Samenwerkingscontract gemaakt en alle documenten gedownload.</t>
     </r>
+  </si>
+  <si>
+    <t>Vrijdag (8-9-2017) : Interviews gehad, bespreking om de informatie duidelijk te maken.</t>
+  </si>
+  <si>
+    <t>Donderdag (7-9-2017) : Code convetions bijgewerkt, besproken over de mails, bespreking over de studentenversie (vooronderzoek) en projectffiles updaten.</t>
+  </si>
+  <si>
+    <t>Donderdag (7-9-2017)  : interview vragen afgerond, mails verzonden en afspraken met de opdrachtgevers.</t>
+  </si>
+  <si>
+    <t>Vrijdag (8-9-2017) : interviews gehad, bespreking om de informatie duidelijk te maken.</t>
+  </si>
+  <si>
+    <t>Vrijdag (8-9-2017) : Interviews gehad, bespreking om de informatie duidelijk te maken en projectdocumenten bijgewerkt.</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1110,9 @@
       <c r="G5" s="19">
         <v>4</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>4</v>
+      </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="O5" s="42" t="s">
@@ -1265,7 +1273,7 @@
       <c r="D16" s="50"/>
       <c r="E16" s="22">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1316,7 +1324,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -1330,7 +1338,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -1358,7 +1366,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
       <c r="C23" s="30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -1372,7 +1380,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="33" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -1386,7 +1394,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -1400,7 +1408,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -2405,7 +2413,7 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:J21"/>
+      <selection activeCell="C20" sqref="C20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,7 +2473,9 @@
       <c r="G5" s="19">
         <v>4</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>4</v>
+      </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="O5" s="42" t="s">
@@ -2626,7 +2636,7 @@
       <c r="D16" s="50"/>
       <c r="E16" s="22">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2719,7 +2729,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
       <c r="C23" s="30" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -2733,7 +2743,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="33" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -2747,7 +2757,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -2761,7 +2771,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -3725,8 +3735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3786,7 +3796,9 @@
       <c r="G5" s="19">
         <v>4</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="O5" s="42" t="s">
@@ -3947,7 +3959,7 @@
       <c r="D16" s="50"/>
       <c r="E16" s="22">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>12</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -3998,7 +4010,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -4012,7 +4024,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -4040,7 +4052,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
       <c r="C23" s="30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -4054,7 +4066,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="33" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -4068,7 +4080,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -4082,7 +4094,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>

--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="63">
   <si>
     <t>Dag:</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>V-week = vakantie week</t>
-  </si>
-  <si>
-    <t>0 = Ziek</t>
   </si>
   <si>
     <t>(leeg) = afwezig</t>
@@ -227,7 +224,16 @@
     <t>Vrijdag (8-9-2017) : interviews gehad, bespreking om de informatie duidelijk te maken.</t>
   </si>
   <si>
-    <t>Vrijdag (8-9-2017) : Interviews gehad, bespreking om de informatie duidelijk te maken en projectdocumenten bijgewerkt.</t>
+    <t>Vrijdag (8-9-2017) : Interviews gehad, bespreking om de informatie duidelijk te maken, projectdocumenten bijgewerkt, interview audio geupload, interview audio beluisteren om notule te maken en notule gemaakt van het interview met Fer.</t>
+  </si>
+  <si>
+    <t>Zaterdag (9-9-2017) : Projectdocumenten bijgewerkt, interview vragen bijgewerkt, interview audio beluisteren om notule te maken en notule gemaakt van het interview met Piet.</t>
+  </si>
+  <si>
+    <t>0 = ziek</t>
+  </si>
+  <si>
+    <t>afwz = afwezig met reden</t>
   </si>
 </sst>
 </file>
@@ -326,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -629,6 +635,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -659,9 +696,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
@@ -677,24 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -723,6 +739,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,12 +787,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,7 +796,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1050,23 +1093,23 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -1098,23 +1141,23 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>4</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="F5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="16">
         <v>4</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="16">
         <v>4</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
       <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
@@ -1125,29 +1168,31 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
+      <c r="O6" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
       <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
@@ -1158,15 +1203,15 @@
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
       <c r="O8" s="45" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="P8" s="46"/>
       <c r="Q8" s="47"/>
@@ -1175,16 +1220,16 @@
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="6"/>
       <c r="O9" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" s="46"/>
       <c r="Q9" s="47"/>
@@ -1193,66 +1238,66 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="O10" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="O10" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
@@ -1267,11 +1312,11 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="22">
+      <c r="D16" s="34"/>
+      <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>16</v>
       </c>
@@ -1294,10 +1339,10 @@
     </row>
     <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -1309,7 +1354,7 @@
     <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="9"/>
@@ -1323,1015 +1368,1079 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="C20" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
+      <c r="C21" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
+      <c r="C22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
+      <c r="C23" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
+      <c r="C24" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
+      <c r="C25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
+      <c r="C26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="29"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="29"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="35"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="24"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="24"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="29"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="29"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="32"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="35"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="35"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="38"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="24"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="41"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="29"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="29"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="32"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="35"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="35"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="38"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="24"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="41"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="29"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="29"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="32"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="35"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="35"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="38"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="24"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="41"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="29"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="29"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="32"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="35"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="35"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="38"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="24"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="41"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="29"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="29"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="32"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="35"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="35"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="38"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="24"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="41"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="29"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="29"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="32"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="33" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="35"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="33" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="35"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="38"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="72">
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -2340,69 +2449,6 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2413,23 +2459,23 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:J20"/>
+      <selection activeCell="O10" sqref="O5:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -2461,23 +2507,23 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>4</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="F5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="16">
         <v>4</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="16">
         <v>4</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
       <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
@@ -2488,29 +2534,31 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
+      <c r="O6" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
       <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
@@ -2521,15 +2569,15 @@
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
       <c r="O8" s="45" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="P8" s="46"/>
       <c r="Q8" s="47"/>
@@ -2538,16 +2586,16 @@
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="6"/>
       <c r="O9" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" s="46"/>
       <c r="Q9" s="47"/>
@@ -2556,66 +2604,66 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="O10" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="O10" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
@@ -2630,11 +2678,11 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="22">
+      <c r="D16" s="34"/>
+      <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>16</v>
       </c>
@@ -2657,10 +2705,10 @@
     </row>
     <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2672,7 +2720,7 @@
     <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="9"/>
@@ -2686,100 +2734,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="C20" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
+      <c r="C21" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
+      <c r="C22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
+      <c r="C23" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
+      <c r="C24" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
+      <c r="C25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
+      <c r="C26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -2796,7 +2844,7 @@
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="9"/>
@@ -2810,100 +2858,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -2920,7 +2968,7 @@
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="9"/>
@@ -2934,100 +2982,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="29"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="29"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="35"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -3044,7 +3092,7 @@
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="9"/>
@@ -3058,100 +3106,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="29"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="29"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="32"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="35"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="35"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="38"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -3168,7 +3216,7 @@
     <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="9"/>
@@ -3182,95 +3230,95 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="41"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="29"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="29"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="32"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="35"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="35"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="38"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D64" s="9"/>
@@ -3282,91 +3330,91 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="41"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="29"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="29"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="32"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="35"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="35"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="38"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="9"/>
@@ -3378,91 +3426,91 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="41"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="29"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="29"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="32"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="35"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="35"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="38"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D82" s="9"/>
@@ -3474,91 +3522,91 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="41"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="29"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="29"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="32"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="35"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="35"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="38"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="9"/>
@@ -3570,91 +3618,155 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="41"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="29"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="29"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="32"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="33" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="35"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="33" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="35"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="38"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="72">
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -3663,69 +3775,6 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3736,23 +3785,23 @@
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="O10" sqref="O5:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -3784,23 +3833,25 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>4</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="F5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="16">
         <v>4</v>
       </c>
-      <c r="H5" s="19">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="H5" s="16">
+        <v>7</v>
+      </c>
+      <c r="I5" s="16">
+        <v>3</v>
+      </c>
+      <c r="J5" s="16"/>
       <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
@@ -3811,29 +3862,31 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
+      <c r="O6" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
       <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
@@ -3844,15 +3897,15 @@
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
       <c r="O8" s="45" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="P8" s="46"/>
       <c r="Q8" s="47"/>
@@ -3861,16 +3914,16 @@
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="6"/>
       <c r="O9" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" s="46"/>
       <c r="Q9" s="47"/>
@@ -3879,66 +3932,66 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="O10" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="O10" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
@@ -3953,13 +4006,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="22">
+      <c r="D16" s="34"/>
+      <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>16.100000000000001</v>
+        <v>22</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -3980,10 +4033,10 @@
     </row>
     <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -3995,7 +4048,7 @@
     <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="9"/>
@@ -4009,100 +4062,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="C20" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
+      <c r="C21" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
+      <c r="C22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
+      <c r="C23" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
+      <c r="C24" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
+      <c r="C25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
+      <c r="C26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -4119,7 +4172,7 @@
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="9"/>
@@ -4133,100 +4186,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4243,7 +4296,7 @@
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="9"/>
@@ -4257,100 +4310,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="29"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="29"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="35"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -4367,7 +4420,7 @@
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="9"/>
@@ -4381,100 +4434,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="29"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="29"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="32"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="35"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="35"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="38"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -4491,7 +4544,7 @@
     <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="9"/>
@@ -4505,95 +4558,95 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="41"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="29"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="29"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="32"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="35"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="35"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="38"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D64" s="9"/>
@@ -4605,91 +4658,91 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="41"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="29"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="29"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="32"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="35"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="35"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="38"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="9"/>
@@ -4701,91 +4754,91 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="41"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="29"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="29"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="32"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="35"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="35"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="38"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D82" s="9"/>
@@ -4797,91 +4850,91 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="41"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="29"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="29"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="32"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="35"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="35"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="38"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="9"/>
@@ -4893,88 +4946,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="41"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="29"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="29"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="32"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="33" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="35"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="33" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="35"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="38"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
@@ -5057,62 +5110,8 @@
       <c r="J107" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
+  <mergeCells count="72">
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C87:J87"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O8:Q8"/>
@@ -5129,6 +5128,61 @@
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="64">
   <si>
     <t>Dag:</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Zondag (10-9-2017):</t>
-  </si>
-  <si>
-    <t>Donderdag (7-9-2017) : 1 mail geüpdatet , 1 mail gemaakt (inhoudelijk) en interview vragen geüpdatet .</t>
   </si>
   <si>
     <t>Dinsdag (5-9-2017) : begonnen aan de interview vragen de style van logboek verandert,documten van andere na gekeken.</t>
@@ -234,6 +231,12 @@
   </si>
   <si>
     <t>afwz = afwezig met reden</t>
+  </si>
+  <si>
+    <t>Zondag (10-9-2017): Begonnen aan de PvA, notulen bijgewerkt, offerte geüpdatet en mails getypt voor de terugkopplingen.</t>
+  </si>
+  <si>
+    <t>Donderdag (7-9-2017) : 1 mail geüpdatet , 1 mail gemaakt (inhoudelijk) en interview vragen geüpdatet.</t>
   </si>
 </sst>
 </file>
@@ -712,6 +715,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -739,33 +760,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,6 +781,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,6 +803,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1092,18 +1095,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -1158,11 +1161,11 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1176,11 +1179,11 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="O6" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -1193,11 +1196,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1210,11 +1213,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="O8" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1228,11 +1231,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1245,11 +1248,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -1300,9 +1303,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1312,10 +1315,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>16</v>
@@ -1368,100 +1371,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="C20" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="C21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="C23" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="C24" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1492,100 +1495,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1616,100 +1619,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1740,100 +1743,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1864,92 +1867,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
@@ -1974,88 +1977,88 @@
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
@@ -2080,88 +2083,88 @@
       <c r="J73" s="21"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
@@ -2186,88 +2189,88 @@
       <c r="J82" s="21"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
@@ -2292,146 +2295,99 @@
       <c r="J91" s="21"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2441,14 +2397,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2465,11 +2468,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -2524,11 +2527,11 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2542,11 +2545,11 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="O6" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -2559,11 +2562,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -2576,11 +2579,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="O8" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -2594,11 +2597,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -2611,11 +2614,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -2666,9 +2669,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2678,10 +2681,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>16</v>
@@ -2734,100 +2737,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="C23" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="C24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -2858,100 +2861,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -2982,100 +2985,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -3106,100 +3109,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -3230,92 +3233,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -3330,88 +3333,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -3426,88 +3429,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -3522,88 +3525,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -3618,146 +3621,99 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3767,14 +3723,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3784,18 +3787,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O5:Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -3851,12 +3854,14 @@
       <c r="I5" s="16">
         <v>3</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="O5" s="42" t="s">
+      <c r="J5" s="16">
+        <v>4</v>
+      </c>
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -3870,11 +3875,11 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="O6" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -3887,11 +3892,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -3904,11 +3909,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="O8" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -3922,11 +3927,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -3939,11 +3944,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -3994,9 +3999,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4006,13 +4011,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4062,100 +4067,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="C20" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="C21" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="C23" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="C24" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="C25" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="C26" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -4186,100 +4191,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4310,100 +4315,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -4434,100 +4439,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -4558,92 +4563,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -4658,88 +4663,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -4754,88 +4759,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -4850,88 +4855,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -4946,88 +4951,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
@@ -5111,32 +5116,36 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
     <mergeCell ref="C80:J80"/>
     <mergeCell ref="C98:J98"/>
     <mergeCell ref="C88:J88"/>
@@ -5147,42 +5156,38 @@
     <mergeCell ref="C96:J96"/>
     <mergeCell ref="C97:J97"/>
     <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
     <mergeCell ref="C56:J56"/>
     <mergeCell ref="C57:J57"/>
     <mergeCell ref="C58:J58"/>
     <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
     <sheet name="Lukasz" sheetId="2" r:id="rId2"/>
     <sheet name="Youssef" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="66">
   <si>
     <t>Dag:</t>
   </si>
@@ -238,11 +238,17 @@
   <si>
     <t>Donderdag (7-9-2017) : 1 mail geüpdatet , 1 mail gemaakt (inhoudelijk) en interview vragen geüpdatet.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Zaterdag (9-9-2017) : </t>
+  </si>
+  <si>
+    <t>Zondag (10-9-2017): Offerte sammen met Jean-Pierre gemaakt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -715,24 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -760,6 +748,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,12 +796,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,9 +812,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1092,29 +1098,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1161,13 +1167,13 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1179,13 +1185,13 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1196,13 +1202,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1213,13 +1219,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1231,13 +1237,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,13 +1254,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1272,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1284,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1290,7 +1296,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1302,10 +1308,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1313,12 +1319,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>16</v>
@@ -1328,7 +1334,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -1340,7 +1346,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -1354,7 +1360,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -1368,105 +1374,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="20"/>
@@ -1478,7 +1484,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="22" t="s">
@@ -1492,105 +1498,105 @@
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="21"/>
@@ -1602,7 +1608,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="22" t="s">
@@ -1616,105 +1622,105 @@
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="20"/>
@@ -1726,7 +1732,7 @@
       <c r="I45" s="20"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="22" t="s">
@@ -1740,105 +1746,105 @@
       <c r="I46" s="20"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="21"/>
@@ -1850,7 +1856,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="22" t="s">
@@ -1864,97 +1870,97 @@
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -1964,7 +1970,7 @@
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="22" t="s">
         <v>36</v>
       </c>
@@ -1976,91 +1982,91 @@
       <c r="I64" s="20"/>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -2070,7 +2076,7 @@
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="22" t="s">
         <v>37</v>
       </c>
@@ -2082,91 +2088,91 @@
       <c r="I73" s="20"/>
       <c r="J73" s="21"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
@@ -2176,7 +2182,7 @@
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="22" t="s">
         <v>39</v>
       </c>
@@ -2188,91 +2194,91 @@
       <c r="I82" s="20"/>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -2282,7 +2288,7 @@
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="22" t="s">
         <v>38</v>
       </c>
@@ -2294,100 +2300,147 @@
       <c r="I91" s="20"/>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2397,90 +2450,43 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O5:Q10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2526,14 +2532,16 @@
         <v>4</v>
       </c>
       <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="O5" s="39" t="s">
+      <c r="J5" s="16">
+        <v>2</v>
+      </c>
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2545,13 +2553,13 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2562,13 +2570,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2579,13 +2587,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2597,13 +2605,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2614,13 +2622,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2632,7 +2640,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2644,7 +2652,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2656,7 +2664,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2668,10 +2676,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2679,22 +2687,22 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -2706,7 +2714,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -2720,7 +2728,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -2734,105 +2742,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -2844,7 +2852,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -2858,105 +2866,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2968,7 +2976,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -2982,105 +2990,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -3092,7 +3100,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -3106,105 +3114,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3216,7 +3224,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -3230,97 +3238,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -3332,91 +3340,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -3428,91 +3436,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -3524,91 +3532,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -3620,100 +3628,147 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3723,90 +3778,43 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3832,7 +3840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3857,13 +3865,13 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3875,13 +3883,13 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -3892,13 +3900,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3909,13 +3917,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3927,13 +3935,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3944,13 +3952,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3962,7 +3970,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -3974,7 +3982,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -3986,7 +3994,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3998,10 +4006,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4009,12 +4017,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>26</v>
@@ -4024,7 +4032,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -4036,7 +4044,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -4050,7 +4058,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -4064,105 +4072,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -4174,7 +4182,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -4188,105 +4196,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4298,7 +4306,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -4312,105 +4320,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -4422,7 +4430,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -4436,105 +4444,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4546,7 +4554,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -4560,97 +4568,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -4662,91 +4670,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -4758,91 +4766,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -4854,91 +4862,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -4950,91 +4958,91 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -5044,7 +5052,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -5054,7 +5062,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -5064,7 +5072,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -5074,7 +5082,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -5084,7 +5092,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -5094,7 +5102,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -5104,7 +5112,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -5116,46 +5124,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C69:J69"/>
@@ -5172,22 +5156,46 @@
     <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/urenlijst_met_logboek.xlsx
+++ b/documentation/urenlijst_met_logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="67">
   <si>
     <t>Dag:</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Zondag (10-9-2017): Offerte sammen met Jean-Pierre gemaakt</t>
+  </si>
+  <si>
+    <t>Maandag: agenda opgestelt en vergadering gehouden/ begin gemaakt met PVA(planning)</t>
   </si>
 </sst>
 </file>
@@ -721,6 +724,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -748,33 +769,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,6 +790,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,6 +812,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1101,18 +1104,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
@@ -1167,17 +1170,19 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16">
+        <v>4</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -1185,11 +1190,11 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
@@ -1202,11 +1207,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
@@ -1219,11 +1224,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
@@ -1237,11 +1242,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
@@ -1254,11 +1259,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
@@ -1309,9 +1314,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1321,13 +1326,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1377,100 +1382,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -1501,100 +1506,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="C29" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -1625,100 +1630,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -1749,100 +1754,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
@@ -1873,92 +1878,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C63" s="23"/>
@@ -1983,88 +1988,88 @@
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C72" s="23"/>
@@ -2089,88 +2094,88 @@
       <c r="J73" s="21"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C81" s="23"/>
@@ -2195,88 +2200,88 @@
       <c r="J82" s="21"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C90" s="23"/>
@@ -2301,146 +2306,99 @@
       <c r="J91" s="21"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2450,14 +2408,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2467,18 +2472,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
@@ -2535,11 +2540,11 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -2553,11 +2558,11 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
@@ -2570,11 +2575,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
@@ -2587,11 +2592,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
@@ -2605,11 +2610,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
@@ -2622,11 +2627,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
@@ -2677,9 +2682,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2689,10 +2694,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>18</v>
@@ -2745,100 +2750,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -2869,100 +2874,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -2993,100 +2998,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -3117,100 +3122,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
@@ -3241,92 +3246,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="18" t="s">
@@ -3341,88 +3346,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="18" t="s">
@@ -3437,88 +3442,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="18" t="s">
@@ -3533,88 +3538,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="18" t="s">
@@ -3629,146 +3634,99 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3778,14 +3736,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3802,11 +3807,11 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
@@ -3865,11 +3870,11 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -3883,11 +3888,11 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
@@ -3900,11 +3905,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
@@ -3917,11 +3922,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
@@ -3935,11 +3940,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
@@ -3952,11 +3957,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
@@ -4007,9 +4012,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4019,10 +4024,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>26</v>
@@ -4075,100 +4080,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -4199,100 +4204,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -4323,100 +4328,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -4447,100 +4452,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
@@ -4571,92 +4576,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="18" t="s">
@@ -4671,88 +4676,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="18" t="s">
@@ -4767,88 +4772,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="18" t="s">
@@ -4863,88 +4868,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="18" t="s">
@@ -4959,88 +4964,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C100" s="9"/>
@@ -5124,6 +5129,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C87:J87"/>
     <mergeCell ref="O10:Q10"/>
@@ -5140,62 +5201,6 @@
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C78:J78"/>
     <mergeCell ref="C79:J79"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
